--- a/docs/cnc/diy_list.xlsx
+++ b/docs/cnc/diy_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="23256" windowHeight="11568" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="23250" windowHeight="11565"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>名称</t>
   </si>
@@ -91,7 +91,7 @@
   </si>
   <si>
     <t>2012.7.4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://item.taobao.com/item.htm?id=2335643918</t>
@@ -107,44 +107,44 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>XB梅花型 Ø30L40,6.35*10</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>N/A</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://item.taobao.com/item.htm?id=8916522026</t>
   </si>
   <si>
     <t>宽座角尺</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成量宽座角尺200*125mm精度1级</t>
   </si>
   <si>
     <t>上工百分表0-10mm 精度0.01mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>蓝杆型万向开关式磁性表座，长度360MM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>框式水平仪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>重庆宏宇框式水平仪100mm精度0.05mm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>http://item.taobao.com/item.htm?id=18309860339</t>
@@ -154,60 +154,128 @@
   </si>
   <si>
     <t>http://item.taobao.com/item.htm?id=7687444344</t>
+  </si>
+  <si>
+    <t>步进电机电缆</t>
+  </si>
+  <si>
+    <t>RVV4x0.5</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>2012.8.</t>
+  </si>
+  <si>
+    <t>小号四芯田宫插头</t>
+  </si>
+  <si>
+    <t>中发一楼</t>
+  </si>
+  <si>
+    <t>航空插头</t>
+  </si>
+  <si>
+    <t>GX16-4P</t>
+  </si>
+  <si>
+    <t>全钢机架</t>
+  </si>
+  <si>
+    <t>M5*70</t>
+  </si>
+  <si>
+    <t>电机固定螺杆(加弹簧垫和平垫)</t>
+  </si>
+  <si>
+    <t>2012.9.2</t>
+  </si>
+  <si>
+    <t>华威五金</t>
+  </si>
+  <si>
+    <t>透明塑料卷线带？</t>
+  </si>
+  <si>
+    <t>份</t>
+  </si>
+  <si>
+    <t>直流电压表</t>
+  </si>
+  <si>
+    <t>500V</t>
+  </si>
+  <si>
+    <t>步进电机</t>
+  </si>
+  <si>
+    <t>伺服电机</t>
+  </si>
+  <si>
+    <t>电动机</t>
+  </si>
+  <si>
+    <t>直流电动机</t>
+  </si>
+  <si>
+    <t>机械工艺</t>
+  </si>
+  <si>
+    <t>金属/螺纹/刀具/…</t>
+  </si>
+  <si>
+    <t>精雕手册</t>
+  </si>
+  <si>
+    <t>电火花加工</t>
+  </si>
+  <si>
+    <t>调压器</t>
+  </si>
+  <si>
+    <t>500W自耦</t>
+  </si>
+  <si>
+    <t>中发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -215,13 +283,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +318,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -273,21 +354,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="输入" xfId="2" builtinId="20"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,7 +380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -586,177 +666,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="97.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>45</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>40</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>175</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>400</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>412</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>110</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>120</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>34</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>103</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:8" s="4" customFormat="1">
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2750</v>
+      </c>
+      <c r="E10" s="1">
+        <v>98</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="4">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
   </hyperlinks>
@@ -767,47 +950,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="66.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -833,7 +1016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -850,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -867,7 +1050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -884,54 +1067,131 @@
         <v>38</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2012</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/cnc/diy_list.xlsx
+++ b/docs/cnc/diy_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
   <si>
     <t>名称</t>
   </si>
@@ -180,9 +180,6 @@
     <t>GX16-4P</t>
   </si>
   <si>
-    <t>全钢机架</t>
-  </si>
-  <si>
     <t>M5*70</t>
   </si>
   <si>
@@ -238,13 +235,98 @@
   </si>
   <si>
     <t>中发</t>
+  </si>
+  <si>
+    <t>3040全钢机架</t>
+  </si>
+  <si>
+    <t>2012.8.21</t>
+  </si>
+  <si>
+    <t>外形尺寸:650×550×500mm(长×宽×高)
+工作台尺寸320*520(10mm钢板M8孔距80*80),有效行程:X轴270mm  Y轴380mm  Z轴80mm，滑动单元:YΦ20光轴  XΦ16光轴  ZΦ16光轴，最大工件厚度:≤115mm（Z轴底部与工作台间距）</t>
+  </si>
+  <si>
+    <t>2012.8.28</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=17374704863</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a1z09.5.0.40&amp;id=14268586997</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=15633878638</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=15572727776</t>
+  </si>
+  <si>
+    <t>TB6560芯片</t>
+  </si>
+  <si>
+    <t>Toshiba TB6560AHQ</t>
+  </si>
+  <si>
+    <t>2012.8.22</t>
+  </si>
+  <si>
+    <t>纱包铜线</t>
+  </si>
+  <si>
+    <t>1.5x4mm</t>
+  </si>
+  <si>
+    <t>2kg</t>
+  </si>
+  <si>
+    <t>2012.7.29</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=13703112875</t>
+  </si>
+  <si>
+    <t>紫铜排板</t>
+  </si>
+  <si>
+    <t>3*80*100mm（厚*长*宽）</t>
+  </si>
+  <si>
+    <t>2012.8.5</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=17785844602</t>
+  </si>
+  <si>
+    <t>锯条</t>
+  </si>
+  <si>
+    <t>可控硅</t>
+  </si>
+  <si>
+    <t>整流管</t>
+  </si>
+  <si>
+    <t>ZP400A1000V</t>
+  </si>
+  <si>
+    <t>KK800A1200V</t>
+  </si>
+  <si>
+    <t>2012.8.6</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?spm=a1z09.5.0.87&amp;id=13525067911</t>
+  </si>
+  <si>
+    <t>http://item.taobao.com/item.htm?id=109735540</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +377,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -350,21 +446,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,294 +811,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="6" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="97.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="18">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="18">
         <v>45</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="18">
         <v>40</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="18">
         <v>175</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="13">
         <v>400</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="13">
         <v>12</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="13">
         <v>412</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" s="5" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="13">
         <v>30</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" s="11" customFormat="1">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="18">
         <v>110</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="18">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="18">
         <v>120</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="13">
         <v>34</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <v>10</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>103</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" s="11" customFormat="1">
+      <c r="A7" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="18">
         <v>20</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" s="12" customFormat="1">
+      <c r="A8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="19">
+        <v>38</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="13">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="E9" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>52.9</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1">
+      <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1">
-      <c r="A10" s="1" t="s">
+      <c r="D10" s="18">
+        <v>3.1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="90">
+      <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2750</v>
+      </c>
+      <c r="E11" s="13">
+        <v>98</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2848</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1">
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="18">
+        <v>20</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18">
+        <v>16</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1">
+      <c r="A13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="18">
         <v>1</v>
       </c>
-      <c r="D10" s="1">
-        <v>2750</v>
-      </c>
-      <c r="E10" s="1">
-        <v>98</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1">
-      <c r="A11" s="4" t="s">
+      <c r="D13" s="18">
+        <v>8</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="4">
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1">
+      <c r="A14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="18">
+        <v>78</v>
+      </c>
+      <c r="E14" s="18">
+        <v>17</v>
+      </c>
+      <c r="F14" s="18">
+        <v>173</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="15" customFormat="1">
+      <c r="A15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="18">
+        <v>3</v>
+      </c>
+      <c r="D15" s="18">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="F11" s="4">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1">
-      <c r="A12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="E15" s="18">
+        <v>12</v>
+      </c>
+      <c r="F15" s="18">
+        <v>92</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="F12" s="4">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
+      <c r="D16" s="7">
+        <v>235</v>
+      </c>
+      <c r="E16" s="7">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7">
+        <v>255</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>120</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>120</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H9" r:id="rId3"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H8" r:id="rId5"/>
+    <hyperlink ref="H14" r:id="rId6"/>
+    <hyperlink ref="H15" r:id="rId7"/>
+    <hyperlink ref="H16" r:id="rId8"/>
+    <hyperlink ref="H17" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,29 +1280,29 @@
     <col min="8" max="8" width="66.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1069,10 +1385,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1084,15 +1400,15 @@
         <v>2012</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1101,7 +1417,21 @@
         <v>170</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1124,70 +1454,70 @@
     <col min="8" max="8" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
